--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -429,7 +429,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,34 +437,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2330,273 +2331,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B36417-4435-49EA-BCC5-E587DD018BAE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C6E949D-45FA-4E6D-9CEF-E23D1D04E02A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC05B09-F20A-4FA5-A46A-669EBD494B97}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -248,6 +248,24 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati pubblico impiego</t>
   </si>
   <si>
@@ -333,24 +351,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Grado di parentela</t>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1250,19 +1250,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1270,19 +1270,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1290,19 +1290,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1322,7 +1322,7 @@
         <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1330,19 +1330,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1350,39 +1350,39 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1390,59 +1390,59 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1450,39 +1450,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1490,39 +1490,39 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1530,59 +1530,59 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1590,39 +1590,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1630,19 +1630,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1650,39 +1650,39 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1690,39 +1690,39 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1750,59 +1750,59 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1810,62 +1810,62 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1873,7 +1873,7 @@
         <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
@@ -1882,7 +1882,7 @@
         <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>117</v>
@@ -1893,7 +1893,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
@@ -1902,10 +1902,10 @@
         <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
@@ -1913,7 +1913,7 @@
         <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -1922,7 +1922,7 @@
         <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>117</v>
@@ -1933,7 +1933,7 @@
         <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -1942,10 +1942,10 @@
         <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
@@ -1953,7 +1953,7 @@
         <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -1962,10 +1962,10 @@
         <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -1973,7 +1973,7 @@
         <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -1982,10 +1982,10 @@
         <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
@@ -1993,7 +1993,7 @@
         <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2002,10 +2002,10 @@
         <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -2013,7 +2013,7 @@
         <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2022,10 +2022,10 @@
         <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
@@ -2033,7 +2033,7 @@
         <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2042,10 +2042,10 @@
         <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
@@ -2053,7 +2053,7 @@
         <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2062,10 +2062,10 @@
         <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
@@ -2073,7 +2073,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2082,10 +2082,10 @@
         <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -2093,7 +2093,7 @@
         <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2102,10 +2102,10 @@
         <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
@@ -2113,7 +2113,7 @@
         <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2122,10 +2122,10 @@
         <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -2133,7 +2133,7 @@
         <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2142,10 +2142,10 @@
         <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
@@ -2153,7 +2153,7 @@
         <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2162,10 +2162,10 @@
         <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2173,7 +2173,7 @@
         <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2182,7 +2182,7 @@
         <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>117</v>
@@ -2193,7 +2193,7 @@
         <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
@@ -2202,10 +2202,10 @@
         <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -2213,7 +2213,7 @@
         <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
@@ -2222,7 +2222,7 @@
         <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>117</v>
@@ -2233,7 +2233,7 @@
         <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
@@ -2242,7 +2242,7 @@
         <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>117</v>
@@ -2250,62 +2250,62 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
@@ -2313,18 +2313,78 @@
         <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Attestazione di acquisizione di cittadinanza</t>
   </si>
   <si>
+    <t>Allegato aggiuntivo</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -266,27 +269,6 @@
     <t>flagFirmatario</t>
   </si>
   <si>
-    <t>Dati pubblico impiego</t>
-  </si>
-  <si>
-    <t>Datore estero</t>
-  </si>
-  <si>
-    <t>datoreEstero</t>
-  </si>
-  <si>
-    <t>Nome datore</t>
-  </si>
-  <si>
-    <t>nomeDatoreLavoro</t>
-  </si>
-  <si>
-    <t>Data inizio impiego</t>
-  </si>
-  <si>
-    <t>dataAssunzione</t>
-  </si>
-  <si>
     <t>Dati Generali</t>
   </si>
   <si>
@@ -357,6 +339,72 @@
   </si>
   <si>
     <t>gradoDiParentela</t>
+  </si>
+  <si>
+    <t>Documentazione realtiva al pubblico impiego</t>
+  </si>
+  <si>
+    <t>Tempistica assunzione</t>
+  </si>
+  <si>
+    <t>tempoAssunzione</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -454,16 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.4140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.33984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="42.6171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -590,13 +638,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -610,13 +658,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -630,7 +678,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -650,7 +698,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -670,7 +718,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -690,7 +738,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -710,7 +758,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -729,60 +777,60 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -790,19 +838,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -810,19 +858,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -830,19 +878,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -850,99 +898,99 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -950,19 +998,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -970,19 +1018,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -990,19 +1038,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1010,139 +1058,139 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1150,19 +1198,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1170,119 +1218,119 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1290,19 +1338,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1310,19 +1358,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1330,19 +1378,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1350,19 +1398,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1370,39 +1418,39 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1410,39 +1458,39 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1450,39 +1498,39 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1490,19 +1538,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1510,39 +1558,39 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1550,39 +1598,39 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1590,39 +1638,39 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1630,19 +1678,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1650,19 +1698,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1670,39 +1718,39 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1710,99 +1758,99 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1810,19 +1858,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1830,19 +1878,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1850,16 +1898,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>114</v>
@@ -1870,99 +1918,99 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1970,39 +2018,39 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2010,119 +2058,119 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2130,39 +2178,39 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2170,39 +2218,39 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2210,119 +2258,119 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2330,39 +2378,39 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2370,21 +2418,181 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -59,7 +59,7 @@
     <t>Attestazione di acquisizione di cittadinanza</t>
   </si>
   <si>
-    <t>Allegato aggiuntivo</t>
+    <t>Allegato generico</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -414,6 +420,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -502,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,6 +523,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,265 +545,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -815,1785 +867,2055 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -2903,7 +2903,7 @@
         <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>38</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -2213,7 +2213,7 @@
         <v>123</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>115</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,61 +32,64 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Documentazione relativa all’assunzione pubblico impiego</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ricevuta pagamento contributo di 250,00</t>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Attestazione di acquisizione di cittadinanza</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Documentazione relativa all’assunzione pubblico impiego</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ricevuta pagamento contributo di 250,00</t>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Attestazione di acquisizione di cittadinanza</t>
-  </si>
-  <si>
-    <t>Allegato generico</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -868,2054 +871,2054 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -425,7 +425,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -526,7 +526,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -206,6 +206,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -414,6 +420,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -514,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1259,7 +1268,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>30</v>
@@ -1282,7 +1291,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>30</v>
@@ -1296,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
@@ -1305,7 +1314,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>30</v>
@@ -1342,7 +1351,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>42</v>
@@ -1374,7 +1383,7 @@
         <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>30</v>
@@ -1397,7 +1406,7 @@
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
@@ -1420,7 +1429,7 @@
         <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
@@ -1457,7 +1466,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -1466,7 +1475,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>30</v>
@@ -1520,19 +1529,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,7 +1552,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>91</v>
@@ -1552,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>92</v>
@@ -1566,22 +1575,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1589,22 +1598,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1612,22 +1621,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>30</v>
@@ -1635,22 +1644,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1658,19 +1667,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,22 +1736,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1750,22 +1759,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1773,22 +1782,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1796,22 +1805,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1819,22 +1828,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1842,7 +1851,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>103</v>
@@ -1851,10 +1860,10 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1874,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
@@ -1874,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,22 +1920,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -1934,7 +1943,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>107</v>
@@ -1943,10 +1952,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,7 +1966,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>108</v>
@@ -1966,10 +1975,10 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -1980,7 +1989,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>109</v>
@@ -1989,13 +1998,13 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2003,22 +2012,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2026,22 +2035,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>30</v>
@@ -2049,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,599 +2334,691 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="E104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="F106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -2386,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>118</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -434,7 +434,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -535,7 +538,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2912,7 +2915,7 @@
         <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2932,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -2978,10 +2981,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2990,7 +2993,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,10 +3004,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
@@ -3013,7 +3016,7 @@
         <v>39</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2915,7 +2912,7 @@
         <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2935,19 +2932,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2955,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -2981,10 +2978,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2993,7 +2990,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,10 +3001,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
@@ -3016,7 +3013,7 @@
         <v>39</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2912,7 +2915,7 @@
         <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2932,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>20</v>
@@ -2978,10 +2981,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2990,7 +2993,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,10 +3004,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
@@ -3013,7 +3016,7 @@
         <v>39</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -526,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1492,7 +1516,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>42</v>
@@ -1515,7 +1539,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>42</v>
@@ -1524,7 +1548,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1538,7 +1562,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>42</v>
@@ -1555,22 +1579,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1578,19 +1602,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1601,22 +1625,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1624,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,22 +1671,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1670,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1693,22 +1717,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -1716,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1739,22 +1763,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1762,22 +1786,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -1785,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1808,22 +1832,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1831,22 +1855,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -1854,22 +1878,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1877,19 +1901,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1900,22 +1924,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -1923,22 +1947,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -1946,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1969,22 +1993,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -1992,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2015,22 +2039,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2038,22 +2062,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>30</v>
@@ -2061,22 +2085,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2084,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2107,22 +2131,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2130,22 +2154,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2153,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2176,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2268,16 +2292,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>127</v>
@@ -2291,16 +2315,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>129</v>
@@ -2314,16 +2338,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>131</v>
@@ -2337,16 +2361,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>133</v>
@@ -2360,16 +2384,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>135</v>
@@ -2383,19 +2407,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2406,622 +2430,714 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -345,12 +351,6 @@
   </si>
   <si>
     <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -550,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1102,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>42</v>
@@ -1194,7 +1194,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>42</v>
@@ -1226,7 +1226,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>30</v>
@@ -1249,7 +1249,7 @@
         <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>30</v>
@@ -1272,7 +1272,7 @@
         <v>63</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>30</v>
@@ -1318,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>30</v>
@@ -1355,7 +1355,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -1364,7 +1364,7 @@
         <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>30</v>
@@ -1401,7 +1401,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>42</v>
@@ -1433,7 +1433,7 @@
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
@@ -1456,7 +1456,7 @@
         <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
@@ -1479,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>30</v>
@@ -1525,7 +1525,7 @@
         <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>30</v>
@@ -1548,7 +1548,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1571,7 +1571,7 @@
         <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1594,7 +1594,7 @@
         <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1608,7 +1608,7 @@
         <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
@@ -1617,7 +1617,7 @@
         <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1671,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>101</v>
@@ -1703,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>102</v>
@@ -1717,22 +1717,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>30</v>
@@ -1740,22 +1740,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>30</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1809,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1832,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>109</v>
@@ -1910,10 +1910,10 @@
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1933,10 +1933,10 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>18</v>
@@ -1947,22 +1947,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -1970,22 +1970,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>30</v>
@@ -1993,22 +1993,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -2016,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2039,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2085,22 +2085,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2108,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
@@ -2154,22 +2154,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2177,22 +2177,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>30</v>
@@ -2200,22 +2200,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2223,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2269,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,16 +2318,16 @@
         <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,7 +2341,7 @@
         <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2373,7 +2373,7 @@
         <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,7 +2387,7 @@
         <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2396,7 +2396,7 @@
         <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,16 +2410,16 @@
         <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,16 +2433,16 @@
         <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>126</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,7 +2456,7 @@
         <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
@@ -2465,7 +2465,7 @@
         <v>126</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2479,7 @@
         <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
@@ -2488,7 +2488,7 @@
         <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,7 +2502,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
@@ -2511,7 +2511,7 @@
         <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,48 +2522,48 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -2571,19 +2571,19 @@
         <v>145</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>148</v>
@@ -2594,7 +2594,7 @@
         <v>145</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2603,7 +2603,7 @@
         <v>146</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,16 +2617,16 @@
         <v>145</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2640,7 +2640,7 @@
         <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2649,7 +2649,7 @@
         <v>146</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,16 +2663,16 @@
         <v>145</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,19 +2686,19 @@
         <v>145</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>148</v>
@@ -2709,16 +2709,16 @@
         <v>145</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,7 +2732,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
@@ -2741,10 +2741,10 @@
         <v>146</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>148</v>
@@ -2755,7 +2755,7 @@
         <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         <v>146</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>147</v>
@@ -2781,13 +2781,13 @@
         <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2804,16 +2804,16 @@
         <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>148</v>
@@ -2824,19 +2824,19 @@
         <v>145</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>148</v>
@@ -2847,7 +2847,7 @@
         <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2856,7 +2856,7 @@
         <v>146</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2870,16 +2870,16 @@
         <v>145</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2893,19 @@
         <v>145</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>148</v>
@@ -2916,16 +2916,16 @@
         <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,7 +2939,7 @@
         <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
@@ -2948,10 +2948,10 @@
         <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>148</v>
@@ -2962,7 +2962,7 @@
         <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
@@ -2971,7 +2971,7 @@
         <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>147</v>
@@ -2985,16 +2985,16 @@
         <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3008,19 @@
         <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>148</v>
@@ -3031,19 +3031,19 @@
         <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>148</v>
@@ -3051,71 +3051,71 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
@@ -3123,21 +3123,90 @@
         <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1378,7 +1384,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>42</v>
@@ -1387,7 +1393,7 @@
         <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>30</v>
@@ -1401,7 +1407,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>42</v>
@@ -1433,7 +1439,7 @@
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>30</v>
@@ -1456,7 +1462,7 @@
         <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>30</v>
@@ -1479,7 +1485,7 @@
         <v>81</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>30</v>
@@ -1502,7 +1508,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>30</v>
@@ -1548,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1571,7 +1577,7 @@
         <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1594,7 +1600,7 @@
         <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>30</v>
@@ -1617,7 +1623,7 @@
         <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>30</v>
@@ -1631,7 +1637,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>42</v>
@@ -1640,7 +1646,7 @@
         <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>30</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>103</v>
@@ -1726,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>104</v>
@@ -1740,22 +1746,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>30</v>
@@ -1763,22 +1769,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1815,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1832,22 +1838,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -1947,22 +1953,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -1970,22 +1976,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>30</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>18</v>
@@ -2016,22 +2022,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2085,22 +2091,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>30</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>115</v>
@@ -2117,10 +2123,10 @@
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2131,7 +2137,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>116</v>
@@ -2140,10 +2146,10 @@
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>18</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>117</v>
@@ -2163,10 +2169,10 @@
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,7 +2183,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>118</v>
@@ -2186,10 +2192,10 @@
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>18</v>
@@ -2200,7 +2206,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>119</v>
@@ -2209,13 +2215,13 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2223,22 +2229,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2246,22 +2252,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>30</v>
@@ -2269,19 +2275,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2315,19 +2321,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2338,19 +2344,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,19 +2459,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,214 +2574,214 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>111</v>
@@ -2784,21 +2790,21 @@
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>112</v>
@@ -2807,406 +2813,475 @@
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2094,7 +2100,7 @@
         <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
@@ -2103,7 +2109,7 @@
         <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2117,7 +2123,7 @@
         <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
@@ -2126,10 +2132,10 @@
         <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>30</v>
@@ -2140,7 +2146,7 @@
         <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
@@ -2149,10 +2155,10 @@
         <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>30</v>
@@ -2163,7 +2169,7 @@
         <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
@@ -2172,10 +2178,10 @@
         <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2186,7 +2192,7 @@
         <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
@@ -2195,10 +2201,10 @@
         <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>30</v>
@@ -2209,7 +2215,7 @@
         <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
@@ -2218,10 +2224,10 @@
         <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>30</v>
@@ -2232,7 +2238,7 @@
         <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
@@ -2241,10 +2247,10 @@
         <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>30</v>
@@ -2255,7 +2261,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
@@ -2264,7 +2270,7 @@
         <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2278,19 +2284,19 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2301,7 +2307,7 @@
         <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2310,7 +2316,7 @@
         <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,7 +2330,7 @@
         <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2333,7 +2339,7 @@
         <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,7 +2353,7 @@
         <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2356,7 +2362,7 @@
         <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>127</v>
@@ -2399,10 +2405,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,16 +2419,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>131</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>132</v>
@@ -2445,7 +2451,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>133</v>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>134</v>
@@ -2468,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>135</v>
@@ -2482,7 +2488,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>136</v>
@@ -2491,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>137</v>
@@ -2505,16 +2511,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>139</v>
@@ -2528,7 +2534,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>140</v>
@@ -2537,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>141</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>142</v>
@@ -2560,7 +2566,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>143</v>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>144</v>
@@ -2583,7 +2589,7 @@
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>145</v>
@@ -2597,19 +2603,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,352 +2626,352 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>115</v>
@@ -2974,44 +2980,44 @@
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>117</v>
@@ -3020,21 +3026,21 @@
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>118</v>
@@ -3043,21 +3049,21 @@
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>119</v>
@@ -3066,21 +3072,21 @@
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>120</v>
@@ -3089,21 +3095,21 @@
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>121</v>
@@ -3112,148 +3118,148 @@
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,24 +3270,70 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="E120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -390,6 +390,81 @@
   </si>
   <si>
     <t>gradoDiParentela</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Documentazione realtiva al pubblico impiego</t>
@@ -562,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2402,19 +2477,19 @@
         <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -2422,22 +2497,22 @@
         <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -2445,22 +2520,22 @@
         <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="83">
@@ -2468,22 +2543,22 @@
         <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -2491,22 +2566,22 @@
         <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -2514,22 +2589,22 @@
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -2543,7 +2618,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>141</v>
@@ -2552,7 +2627,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -2566,16 +2641,16 @@
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -2583,22 +2658,22 @@
         <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -2606,22 +2681,22 @@
         <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -2629,13 +2704,13 @@
         <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>148</v>
@@ -2644,265 +2719,265 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>66</v>
@@ -2911,429 +2986,705 @@
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -467,7 +467,7 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Documentazione realtiva al pubblico impiego</t>
+    <t>Documentazione relativa al pubblico impiego</t>
   </si>
   <si>
     <t>Tempistica assunzione</t>
@@ -3282,7 +3282,7 @@
         <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>175</v>
@@ -3305,7 +3305,7 @@
         <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>175</v>
@@ -3314,7 +3314,7 @@
         <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>177</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="193">
   <si>
     <t>Sezione</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -637,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1235,7 +1247,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>42</v>
@@ -1258,7 +1270,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>42</v>
@@ -1267,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>30</v>
@@ -1304,7 +1316,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>42</v>
@@ -1327,7 +1339,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -1336,7 +1348,7 @@
         <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>30</v>
@@ -1405,7 +1417,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>30</v>
@@ -1428,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>30</v>
@@ -1474,7 +1486,7 @@
         <v>73</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>30</v>
@@ -1497,7 +1509,7 @@
         <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>30</v>
@@ -1635,7 +1647,7 @@
         <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>30</v>
@@ -1658,7 +1670,7 @@
         <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>30</v>
@@ -1741,7 +1753,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>42</v>
@@ -1764,7 +1776,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>42</v>
@@ -1773,7 +1785,7 @@
         <v>99</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>30</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1850,22 +1862,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>30</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1896,22 +1908,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -1919,22 +1931,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -1942,19 +1954,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1965,22 +1977,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>30</v>
@@ -1988,19 +2000,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2011,22 +2023,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>30</v>
@@ -2034,22 +2046,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>30</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2080,22 +2092,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>30</v>
@@ -2103,22 +2115,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>30</v>
@@ -2126,22 +2138,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>30</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>18</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>18</v>
@@ -2218,19 +2230,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2241,22 +2253,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>30</v>
@@ -2264,7 +2276,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>119</v>
@@ -2273,13 +2285,13 @@
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>30</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
@@ -2310,7 +2322,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>121</v>
@@ -2319,10 +2331,10 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2333,7 +2345,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>122</v>
@@ -2342,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>18</v>
@@ -2356,7 +2368,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>123</v>
@@ -2365,13 +2377,13 @@
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>30</v>
@@ -2379,22 +2391,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>30</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2425,22 +2437,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>30</v>
@@ -2448,22 +2460,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>30</v>
@@ -2471,387 +2483,387 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3000,691 +3012,829 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>30</v>
       </c>
     </row>
